--- a/Homework_3/Registration_Form-Expeсt_Vlad_Dmytrenko.xlsx
+++ b/Homework_3/Registration_Form-Expeсt_Vlad_Dmytrenko.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BRD" sheetId="1" r:id="rId1"/>
@@ -1839,24 +1839,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1880,6 +1862,24 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2178,11 +2178,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2192,10 +2192,10 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
@@ -2220,10 +2220,10 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
@@ -2234,10 +2234,10 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
@@ -2283,20 +2283,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
+      <c r="A3" s="23" t="str">
         <f>BRD!A3</f>
         <v>1.Обзор регистрационной формы</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2327,18 +2327,18 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="str">
+      <c r="A8" s="27" t="str">
         <f>BRD!A5</f>
         <v xml:space="preserve">2. Вид регистрационной формы </v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
@@ -2350,10 +2350,10 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4"/>
       <c r="G11" s="3"/>
     </row>
@@ -2366,20 +2366,20 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="23" t="str">
         <f>BRD!A7</f>
         <v>3 Блок "Your personal detail"</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
@@ -2393,10 +2393,10 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
@@ -2410,13 +2410,13 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -2427,10 +2427,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
@@ -2440,14 +2440,14 @@
         <v>57</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
@@ -2458,10 +2458,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -2469,10 +2469,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -2480,10 +2480,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="23"/>
     </row>
     <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -2491,10 +2491,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -2502,10 +2502,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="23"/>
     </row>
     <row r="33" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
@@ -2513,10 +2513,10 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="23"/>
     </row>
     <row r="35" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
@@ -2524,10 +2524,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="23"/>
     </row>
     <row r="37" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -2535,10 +2535,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="15"/>
+      <c r="B38" s="23"/>
     </row>
     <row r="39" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -2546,10 +2546,10 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="23"/>
     </row>
     <row r="41" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -2557,17 +2557,17 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="str">
+      <c r="A42" s="24" t="str">
         <f>BRD!A9</f>
         <v>4 Блок " Your login details"</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -2575,10 +2575,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:2" ht="220.5" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
@@ -2586,10 +2586,10 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="23"/>
     </row>
     <row r="48" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -2597,10 +2597,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="23"/>
     </row>
     <row r="50" spans="1:2" ht="189" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -2608,10 +2608,10 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="23"/>
     </row>
     <row r="52" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
@@ -2619,10 +2619,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="23"/>
     </row>
     <row r="54" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
@@ -2630,10 +2630,10 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="23"/>
     </row>
     <row r="56" spans="1:2" ht="126" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
@@ -2641,17 +2641,17 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="str">
+      <c r="A57" s="23" t="str">
         <f>BRD!A11</f>
         <v>5 Блок "Additional information"</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="23"/>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="23"/>
     </row>
     <row r="59" spans="1:2" ht="189" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
@@ -2659,10 +2659,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="23"/>
     </row>
     <row r="61" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
@@ -2670,10 +2670,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="23"/>
     </row>
     <row r="63" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
@@ -2725,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C285"/>
+  <dimension ref="B1:C285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,7 +2737,7 @@
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>71</v>
       </c>
@@ -2745,19 +2745,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="e">
-        <f>overview!B2?</f>
-        <v>#NAME?</v>
-      </c>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
@@ -2765,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>74</v>
       </c>
@@ -2773,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>75</v>
       </c>
@@ -2781,7 +2777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>79</v>
       </c>
@@ -2789,7 +2785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>83</v>
       </c>
@@ -2805,7 +2801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>84</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>87</v>
       </c>
@@ -2821,7 +2817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>88</v>
       </c>
@@ -2829,7 +2825,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>89</v>
       </c>
@@ -2837,7 +2833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>92</v>
       </c>
@@ -2845,7 +2841,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>100</v>
       </c>
@@ -2853,7 +2849,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>101</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>102</v>
       </c>
@@ -3217,7 +3213,7 @@
       <c r="B60" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="15" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3313,7 +3309,7 @@
       <c r="B72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="16" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3321,7 +3317,7 @@
       <c r="B73" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="16" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3417,7 +3413,7 @@
       <c r="B85" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3425,7 +3421,7 @@
       <c r="B86" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="16" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3849,7 +3845,7 @@
       <c r="B139" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C139" s="22" t="s">
+      <c r="C139" s="16" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3857,7 +3853,7 @@
       <c r="B140" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C140" s="22" t="s">
+      <c r="C140" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3945,7 +3941,7 @@
       <c r="B151" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="15" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3953,7 +3949,7 @@
       <c r="B152" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="15" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3961,7 +3957,7 @@
       <c r="B153" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="15" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3969,7 +3965,7 @@
       <c r="B154" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="15" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3985,7 +3981,7 @@
       <c r="B156" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="16" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3993,7 +3989,7 @@
       <c r="B157" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C157" s="22" t="s">
+      <c r="C157" s="16" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4009,7 +4005,7 @@
       <c r="B159" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C159" s="22" t="s">
+      <c r="C159" s="16" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4017,7 +4013,7 @@
       <c r="B160" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="16" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4089,7 +4085,7 @@
       <c r="B169" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4097,7 +4093,7 @@
       <c r="B170" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="16" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4169,7 +4165,7 @@
       <c r="B179" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4177,7 +4173,7 @@
       <c r="B180" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4513,7 +4509,7 @@
       <c r="B222" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C222" s="21" t="s">
+      <c r="C222" s="15" t="s">
         <v>456</v>
       </c>
     </row>
@@ -4801,7 +4797,7 @@
       <c r="B258" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C258" s="21" t="s">
+      <c r="C258" s="15" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4937,7 +4933,7 @@
       <c r="B275" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C275" s="23" t="s">
+      <c r="C275" s="17" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4945,7 +4941,7 @@
       <c r="B276" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C276" s="23" t="s">
+      <c r="C276" s="17" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5001,7 +4997,7 @@
       <c r="B283" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C283" s="23" t="s">
+      <c r="C283" s="17" t="s">
         <v>547</v>
       </c>
     </row>
@@ -5031,7 +5027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
@@ -5063,7 +5059,7 @@
         <v>1.Обзор регистрационной формы</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="24" t="str">
+      <c r="D4" s="18" t="str">
         <f>overview!B2</f>
         <v>TS_001</v>
       </c>
@@ -5075,7 +5071,7 @@
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="24" t="str">
+      <c r="D5" s="18" t="str">
         <f>overview!B3</f>
         <v>TS_002</v>
       </c>
@@ -5087,7 +5083,7 @@
     <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="24" t="str">
+      <c r="D6" s="18" t="str">
         <f>overview!B4</f>
         <v>TS_003</v>
       </c>
@@ -5099,7 +5095,7 @@
     <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="18" t="str">
         <f>overview!B5</f>
         <v>TS_004</v>
       </c>
@@ -5111,7 +5107,7 @@
     <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="18" t="str">
         <f>overview!B6</f>
         <v>TS_005</v>
       </c>
@@ -5123,7 +5119,7 @@
     <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="18" t="str">
         <f>overview!B7</f>
         <v>TS_006</v>
       </c>
@@ -5137,11 +5133,11 @@
         <f>BRD!A5</f>
         <v xml:space="preserve">2. Вид регистрационной формы </v>
       </c>
-      <c r="C10" s="25" t="str">
+      <c r="C10" s="19" t="str">
         <f>FRD!A9</f>
         <v>2.1 Языковая панель</v>
       </c>
-      <c r="D10" s="24" t="str">
+      <c r="D10" s="18" t="str">
         <f>overview!B8</f>
         <v>TS_007</v>
       </c>
@@ -5153,7 +5149,7 @@
     <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="24" t="str">
+      <c r="D11" s="18" t="str">
         <f>overview!B9</f>
         <v>TS_008</v>
       </c>
@@ -5165,7 +5161,7 @@
     <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="24" t="str">
+      <c r="D12" s="18" t="str">
         <f>overview!B10</f>
         <v>TS_009</v>
       </c>
@@ -5177,7 +5173,7 @@
     <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="18" t="str">
         <f>overview!B11</f>
         <v>TS_010</v>
       </c>
@@ -5189,7 +5185,7 @@
     <row r="14" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="18" t="str">
         <f>overview!B12</f>
         <v>TS_011</v>
       </c>
@@ -5201,7 +5197,7 @@
     <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="24" t="str">
+      <c r="D15" s="18" t="str">
         <f>overview!B13</f>
         <v>TS_012</v>
       </c>
@@ -5216,7 +5212,7 @@
         <f>FRD!A11</f>
         <v>2.2 Ориентация блоков</v>
       </c>
-      <c r="D16" s="24" t="str">
+      <c r="D16" s="18" t="str">
         <f>overview!B14</f>
         <v>TS_013</v>
       </c>
@@ -5228,7 +5224,7 @@
     <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="24" t="str">
+      <c r="D17" s="18" t="str">
         <f>overview!B15</f>
         <v>TS_014</v>
       </c>
@@ -5240,7 +5236,7 @@
     <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="24" t="str">
+      <c r="D18" s="18" t="str">
         <f>overview!B16</f>
         <v>TS_015</v>
       </c>
@@ -5252,7 +5248,7 @@
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="24" t="str">
+      <c r="D19" s="18" t="str">
         <f>overview!B17</f>
         <v>TS_016</v>
       </c>
@@ -5264,7 +5260,7 @@
     <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="24" t="str">
+      <c r="D20" s="18" t="str">
         <f>overview!B18</f>
         <v>TS_017</v>
       </c>
@@ -5276,7 +5272,7 @@
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="24" t="str">
+      <c r="D21" s="18" t="str">
         <f>overview!B19</f>
         <v>TS_018</v>
       </c>
@@ -5288,7 +5284,7 @@
     <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="24" t="str">
+      <c r="D22" s="18" t="str">
         <f>overview!B20</f>
         <v>TS_019</v>
       </c>
@@ -5298,9 +5294,9 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24" t="str">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18" t="str">
         <f>overview!B21</f>
         <v>TS_020</v>
       </c>
@@ -5312,7 +5308,7 @@
     <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="24" t="str">
+      <c r="D24" s="18" t="str">
         <f>overview!B22</f>
         <v>TS_021</v>
       </c>
@@ -5326,11 +5322,11 @@
         <f>BRD!A7</f>
         <v>3 Блок "Your personal detail"</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="21" t="str">
         <f>FRD!A14</f>
         <v>3.1 Поле "Пол"</v>
       </c>
-      <c r="D25" s="24" t="str">
+      <c r="D25" s="18" t="str">
         <f>overview!B23</f>
         <v>TS_022</v>
       </c>
@@ -5342,7 +5338,7 @@
     <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="24" t="str">
+      <c r="D26" s="18" t="str">
         <f>overview!B24</f>
         <v>TS_023</v>
       </c>
@@ -5354,7 +5350,7 @@
     <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="24" t="str">
+      <c r="D27" s="18" t="str">
         <f>overview!B25</f>
         <v>TS_024</v>
       </c>
@@ -5364,12 +5360,12 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26" t="str">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20" t="str">
         <f>FRD!A16</f>
         <v>3.2 Поле "Имя"</v>
       </c>
-      <c r="D28" s="24" t="str">
+      <c r="D28" s="18" t="str">
         <f>overview!B26</f>
         <v>TS_025</v>
       </c>
@@ -5379,9 +5375,9 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="24" t="str">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="18" t="str">
         <f>overview!B27</f>
         <v>TS_026</v>
       </c>
@@ -5391,9 +5387,9 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="24" t="str">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="18" t="str">
         <f>overview!B28</f>
         <v>TS_027</v>
       </c>
@@ -5403,9 +5399,9 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="24" t="str">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="18" t="str">
         <f>overview!B29</f>
         <v>TS_028</v>
       </c>
@@ -5415,9 +5411,9 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="24" t="str">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="18" t="str">
         <f>overview!B30</f>
         <v>TS_029</v>
       </c>
@@ -5427,9 +5423,9 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="24" t="str">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="18" t="str">
         <f>overview!B31</f>
         <v>TS_030</v>
       </c>
@@ -5439,9 +5435,9 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="24" t="str">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="18" t="str">
         <f>overview!B32</f>
         <v>TS_031</v>
       </c>
@@ -5451,9 +5447,9 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="24" t="str">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="18" t="str">
         <f>overview!B33</f>
         <v>TS_032</v>
       </c>
@@ -5463,9 +5459,9 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="24" t="str">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="18" t="str">
         <f>overview!B34</f>
         <v>TS_033</v>
       </c>
@@ -5475,9 +5471,9 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="24" t="str">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="18" t="str">
         <f>overview!B35</f>
         <v>TS_034</v>
       </c>
@@ -5487,9 +5483,9 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="24" t="str">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="18" t="str">
         <f>overview!B36</f>
         <v>TS_035</v>
       </c>
@@ -5499,12 +5495,12 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26" t="str">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="str">
         <f>FRD!A18</f>
         <v>3.3 Поле "Фамилия"</v>
       </c>
-      <c r="D39" s="24" t="str">
+      <c r="D39" s="18" t="str">
         <f>overview!B37</f>
         <v>TS_036</v>
       </c>
@@ -5514,9 +5510,9 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="24" t="str">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="18" t="str">
         <f>overview!B38</f>
         <v>TS_037</v>
       </c>
@@ -5526,9 +5522,9 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="24" t="str">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="18" t="str">
         <f>overview!B39</f>
         <v>TS_038</v>
       </c>
@@ -5538,9 +5534,9 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="24" t="str">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="18" t="str">
         <f>overview!B40</f>
         <v>TS_039</v>
       </c>
@@ -5550,9 +5546,9 @@
       </c>
     </row>
     <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="24" t="str">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="18" t="str">
         <f>overview!B41</f>
         <v>TS_040</v>
       </c>
@@ -5562,9 +5558,9 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="24" t="str">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="18" t="str">
         <f>overview!B42</f>
         <v>TS_041</v>
       </c>
@@ -5574,9 +5570,9 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="24" t="str">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="18" t="str">
         <f>overview!B43</f>
         <v>TS_042</v>
       </c>
@@ -5586,9 +5582,9 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="24" t="str">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="18" t="str">
         <f>overview!B44</f>
         <v>TS_043</v>
       </c>
@@ -5598,9 +5594,9 @@
       </c>
     </row>
     <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="24" t="str">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="18" t="str">
         <f>overview!B45</f>
         <v>TS_044</v>
       </c>
@@ -5610,9 +5606,9 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="24" t="str">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="18" t="str">
         <f>overview!B46</f>
         <v>TS_045</v>
       </c>
@@ -5622,9 +5618,9 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="24" t="str">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="18" t="str">
         <f>overview!B47</f>
         <v>TS_046</v>
       </c>
@@ -5634,9 +5630,9 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="24" t="str">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="18" t="str">
         <f>overview!B48</f>
         <v>TS_047</v>
       </c>
@@ -5646,12 +5642,12 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="C51" s="26" t="str">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20" t="str">
         <f>FRD!A20</f>
         <v>3.4 Поле "Адрес"</v>
       </c>
-      <c r="D51" s="24" t="str">
+      <c r="D51" s="18" t="str">
         <f>overview!B49</f>
         <v>TS_048</v>
       </c>
@@ -5661,9 +5657,9 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="24" t="str">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="18" t="str">
         <f>overview!B50</f>
         <v>TS_049</v>
       </c>
@@ -5673,9 +5669,9 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="24" t="str">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="18" t="str">
         <f>overview!B51</f>
         <v>TS_050</v>
       </c>
@@ -5685,9 +5681,9 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="24" t="str">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="18" t="str">
         <f>overview!B52</f>
         <v>TS_051</v>
       </c>
@@ -5697,9 +5693,9 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="24" t="str">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="18" t="str">
         <f>overview!B53</f>
         <v>TS_052</v>
       </c>
@@ -5709,9 +5705,9 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="24" t="str">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="18" t="str">
         <f>overview!B54</f>
         <v>TS_053</v>
       </c>
@@ -5721,9 +5717,9 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="24" t="str">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="18" t="str">
         <f>overview!B55</f>
         <v>TS_054</v>
       </c>
@@ -5733,9 +5729,9 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="24" t="str">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="18" t="str">
         <f>overview!B56</f>
         <v>TS_055</v>
       </c>
@@ -5745,9 +5741,9 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="24" t="str">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="18" t="str">
         <f>overview!B57</f>
         <v>TS_056</v>
       </c>
@@ -5757,9 +5753,9 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="24" t="str">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="18" t="str">
         <f>overview!B58</f>
         <v>TS_057</v>
       </c>
@@ -5769,9 +5765,9 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="24" t="str">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="18" t="str">
         <f>overview!B59</f>
         <v>TS_058</v>
       </c>
@@ -5781,9 +5777,9 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="24" t="str">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="18" t="str">
         <f>overview!B60</f>
         <v>TS_059</v>
       </c>
@@ -5793,12 +5789,12 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="26"/>
-      <c r="C63" s="26" t="str">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20" t="str">
         <f>FRD!A22</f>
         <v>3.5 Поле "Дополнительный адрес"</v>
       </c>
-      <c r="D63" s="24" t="str">
+      <c r="D63" s="18" t="str">
         <f>overview!B61</f>
         <v>TS_060</v>
       </c>
@@ -5808,9 +5804,9 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="24" t="str">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="18" t="str">
         <f>overview!B62</f>
         <v>TS_061</v>
       </c>
@@ -5820,9 +5816,9 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="24" t="str">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="18" t="str">
         <f>overview!B63</f>
         <v>TS_062</v>
       </c>
@@ -5832,9 +5828,9 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="24" t="str">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="18" t="str">
         <f>overview!B64</f>
         <v>TS_063</v>
       </c>
@@ -5844,9 +5840,9 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="24" t="str">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="18" t="str">
         <f>overview!B65</f>
         <v>TS_064</v>
       </c>
@@ -5856,9 +5852,9 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="24" t="str">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="18" t="str">
         <f>overview!B66</f>
         <v>TS_065</v>
       </c>
@@ -5868,9 +5864,9 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="24" t="str">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="18" t="str">
         <f>overview!B67</f>
         <v>TS_066</v>
       </c>
@@ -5880,9 +5876,9 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="24" t="str">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="18" t="str">
         <f>overview!B68</f>
         <v>TS_067</v>
       </c>
@@ -5892,9 +5888,9 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="24" t="str">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="18" t="str">
         <f>overview!B69</f>
         <v>TS_068</v>
       </c>
@@ -5904,9 +5900,9 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="24" t="str">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="18" t="str">
         <f>overview!B70</f>
         <v>TS_069</v>
       </c>
@@ -5916,12 +5912,12 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="26"/>
-      <c r="C73" s="26" t="str">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="str">
         <f>FRD!A24</f>
         <v>3.6 Поле "Индекс"</v>
       </c>
-      <c r="D73" s="24" t="str">
+      <c r="D73" s="18" t="str">
         <f>overview!B71</f>
         <v>TS_070</v>
       </c>
@@ -5931,9 +5927,9 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="24" t="str">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="18" t="str">
         <f>overview!B72</f>
         <v>TS_071</v>
       </c>
@@ -5943,9 +5939,9 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="24" t="str">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="18" t="str">
         <f>overview!B73</f>
         <v>TS_072</v>
       </c>
@@ -5955,9 +5951,9 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="24" t="str">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="18" t="str">
         <f>overview!B74</f>
         <v>TS_073</v>
       </c>
@@ -5967,9 +5963,9 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="24" t="str">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="18" t="str">
         <f>overview!B75</f>
         <v>TS_074</v>
       </c>
@@ -5979,9 +5975,9 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="24" t="str">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="18" t="str">
         <f>overview!B76</f>
         <v>TS_075</v>
       </c>
@@ -5991,9 +5987,9 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="24" t="str">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="18" t="str">
         <f>overview!B77</f>
         <v>TS_076</v>
       </c>
@@ -6003,9 +5999,9 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="24" t="str">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="18" t="str">
         <f>overview!B78</f>
         <v>TS_077</v>
       </c>
@@ -6015,9 +6011,9 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="24" t="str">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="18" t="str">
         <f>overview!B79</f>
         <v>TS_078</v>
       </c>
@@ -6027,9 +6023,9 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="24" t="str">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="18" t="str">
         <f>overview!B80</f>
         <v>TS_079</v>
       </c>
@@ -6039,9 +6035,9 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="24" t="str">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="18" t="str">
         <f>overview!B81</f>
         <v>TS_080</v>
       </c>
@@ -6051,9 +6047,9 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="24" t="str">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="18" t="str">
         <f>overview!B82</f>
         <v>TS_081</v>
       </c>
@@ -6063,9 +6059,9 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="24" t="str">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="18" t="str">
         <f>overview!B83</f>
         <v>TS_082</v>
       </c>
@@ -6075,12 +6071,12 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="26"/>
-      <c r="C86" s="26" t="str">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20" t="str">
         <f>FRD!A26</f>
         <v>3.7 Поле "Город"</v>
       </c>
-      <c r="D86" s="24" t="str">
+      <c r="D86" s="18" t="str">
         <f>overview!B84</f>
         <v>TS_083</v>
       </c>
@@ -6090,9 +6086,9 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="24" t="str">
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="18" t="str">
         <f>overview!B85</f>
         <v>TS_084</v>
       </c>
@@ -6102,9 +6098,9 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="24" t="str">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="18" t="str">
         <f>overview!B86</f>
         <v>TS_085</v>
       </c>
@@ -6114,9 +6110,9 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="24" t="str">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="18" t="str">
         <f>overview!B87</f>
         <v>TS_086</v>
       </c>
@@ -6126,9 +6122,9 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="24" t="str">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="18" t="str">
         <f>overview!B88</f>
         <v>TS_087</v>
       </c>
@@ -6138,9 +6134,9 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="24" t="str">
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="18" t="str">
         <f>overview!B89</f>
         <v>TS_088</v>
       </c>
@@ -6150,9 +6146,9 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="24" t="str">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="18" t="str">
         <f>overview!B90</f>
         <v>TS_089</v>
       </c>
@@ -6162,9 +6158,9 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="24" t="str">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="18" t="str">
         <f>overview!B91</f>
         <v>TS_090</v>
       </c>
@@ -6174,9 +6170,9 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="24" t="str">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="18" t="str">
         <f>overview!B92</f>
         <v>TS_091</v>
       </c>
@@ -6186,9 +6182,9 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="24" t="str">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="18" t="str">
         <f>overview!B93</f>
         <v>TS_092</v>
       </c>
@@ -6198,9 +6194,9 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="24" t="str">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="18" t="str">
         <f>overview!B94</f>
         <v>TS_093</v>
       </c>
@@ -6210,9 +6206,9 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="24" t="str">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="18" t="str">
         <f>overview!B95</f>
         <v>TS_094</v>
       </c>
@@ -6222,9 +6218,9 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="24" t="str">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="18" t="str">
         <f>overview!B96</f>
         <v>TS_095</v>
       </c>
@@ -6234,12 +6230,12 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B99" s="26"/>
-      <c r="C99" s="26" t="str">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20" t="str">
         <f>FRD!A28</f>
         <v>3.8 Поле "Страна"</v>
       </c>
-      <c r="D99" s="24" t="str">
+      <c r="D99" s="18" t="str">
         <f>overview!B97</f>
         <v>TS_096</v>
       </c>
@@ -6249,9 +6245,9 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="24" t="str">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="18" t="str">
         <f>overview!B98</f>
         <v>TS_097</v>
       </c>
@@ -6261,9 +6257,9 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="24" t="str">
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="18" t="str">
         <f>overview!B99</f>
         <v>TS_098</v>
       </c>
@@ -6273,9 +6269,9 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="24" t="str">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="18" t="str">
         <f>overview!B100</f>
         <v>TS_099</v>
       </c>
@@ -6285,9 +6281,9 @@
       </c>
     </row>
     <row r="103" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="24" t="str">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="18" t="str">
         <f>overview!B101</f>
         <v>TS_100</v>
       </c>
@@ -6297,9 +6293,9 @@
       </c>
     </row>
     <row r="104" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="24" t="str">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="18" t="str">
         <f>overview!B102</f>
         <v>TS_101</v>
       </c>
@@ -6309,9 +6305,9 @@
       </c>
     </row>
     <row r="105" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="24" t="str">
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="18" t="str">
         <f>overview!B103</f>
         <v>TS_102</v>
       </c>
@@ -6321,9 +6317,9 @@
       </c>
     </row>
     <row r="106" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="24" t="str">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="18" t="str">
         <f>overview!B104</f>
         <v>TS_103</v>
       </c>
@@ -6333,9 +6329,9 @@
       </c>
     </row>
     <row r="107" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="24" t="str">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="18" t="str">
         <f>overview!B105</f>
         <v>TS_104</v>
       </c>
@@ -6345,9 +6341,9 @@
       </c>
     </row>
     <row r="108" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="24" t="str">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="18" t="str">
         <f>overview!B106</f>
         <v>TS_105</v>
       </c>
@@ -6357,9 +6353,9 @@
       </c>
     </row>
     <row r="109" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="24" t="str">
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="18" t="str">
         <f>overview!B107</f>
         <v>TS_106</v>
       </c>
@@ -6369,9 +6365,9 @@
       </c>
     </row>
     <row r="110" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="24" t="str">
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="18" t="str">
         <f>overview!B108</f>
         <v>TS_107</v>
       </c>
@@ -6381,9 +6377,9 @@
       </c>
     </row>
     <row r="111" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="24" t="str">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="18" t="str">
         <f>overview!B109</f>
         <v>TS_108</v>
       </c>
@@ -6393,9 +6389,9 @@
       </c>
     </row>
     <row r="112" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="24" t="str">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="18" t="str">
         <f>overview!B110</f>
         <v>TS_109</v>
       </c>
@@ -6405,9 +6401,9 @@
       </c>
     </row>
     <row r="113" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="24" t="str">
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="18" t="str">
         <f>overview!B111</f>
         <v>TS_110</v>
       </c>
@@ -6417,12 +6413,12 @@
       </c>
     </row>
     <row r="114" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="26"/>
-      <c r="C114" s="26" t="str">
+      <c r="B114" s="20"/>
+      <c r="C114" s="20" t="str">
         <f>FRD!A30</f>
         <v>3.9 Поле "Валюта"</v>
       </c>
-      <c r="D114" s="24" t="str">
+      <c r="D114" s="18" t="str">
         <f>overview!B112</f>
         <v>TS_111</v>
       </c>
@@ -6432,9 +6428,9 @@
       </c>
     </row>
     <row r="115" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="24" t="str">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="18" t="str">
         <f>overview!B113</f>
         <v>TS_112</v>
       </c>
@@ -6444,9 +6440,9 @@
       </c>
     </row>
     <row r="116" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="24" t="str">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="18" t="str">
         <f>overview!B114</f>
         <v>TS_113</v>
       </c>
@@ -6456,9 +6452,9 @@
       </c>
     </row>
     <row r="117" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="24" t="str">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="18" t="str">
         <f>overview!B115</f>
         <v>TS_114</v>
       </c>
@@ -6468,9 +6464,9 @@
       </c>
     </row>
     <row r="118" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="24" t="str">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="18" t="str">
         <f>overview!B116</f>
         <v>TS_115</v>
       </c>
@@ -6480,9 +6476,9 @@
       </c>
     </row>
     <row r="119" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="24" t="str">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="18" t="str">
         <f>overview!B117</f>
         <v>TS_116</v>
       </c>
@@ -6492,9 +6488,9 @@
       </c>
     </row>
     <row r="120" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="24" t="str">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="18" t="str">
         <f>overview!B118</f>
         <v>TS_117</v>
       </c>
@@ -6504,9 +6500,9 @@
       </c>
     </row>
     <row r="121" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="24" t="str">
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="18" t="str">
         <f>overview!B119</f>
         <v>TS_118</v>
       </c>
@@ -6516,9 +6512,9 @@
       </c>
     </row>
     <row r="122" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="24" t="str">
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="18" t="str">
         <f>overview!B120</f>
         <v>TS_119</v>
       </c>
@@ -6528,9 +6524,9 @@
       </c>
     </row>
     <row r="123" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="24" t="str">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="18" t="str">
         <f>overview!B121</f>
         <v>TS_120</v>
       </c>
@@ -6540,9 +6536,9 @@
       </c>
     </row>
     <row r="124" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="24" t="str">
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="18" t="str">
         <f>overview!B122</f>
         <v>TS_121</v>
       </c>
@@ -6552,9 +6548,9 @@
       </c>
     </row>
     <row r="125" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="24" t="str">
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="18" t="str">
         <f>overview!B123</f>
         <v>TS_122</v>
       </c>
@@ -6564,9 +6560,9 @@
       </c>
     </row>
     <row r="126" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="24" t="str">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="18" t="str">
         <f>overview!B124</f>
         <v>TS_123</v>
       </c>
@@ -6576,12 +6572,12 @@
       </c>
     </row>
     <row r="127" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" s="26"/>
-      <c r="C127" s="26" t="str">
+      <c r="B127" s="20"/>
+      <c r="C127" s="20" t="str">
         <f>FRD!A32</f>
         <v>3.10 Поле "Дата рождения"</v>
       </c>
-      <c r="D127" s="24" t="str">
+      <c r="D127" s="18" t="str">
         <f>overview!B125</f>
         <v>TS_124</v>
       </c>
@@ -6591,9 +6587,9 @@
       </c>
     </row>
     <row r="128" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="24" t="str">
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="18" t="str">
         <f>overview!B126</f>
         <v>TS_125</v>
       </c>
@@ -6603,9 +6599,9 @@
       </c>
     </row>
     <row r="129" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="24" t="str">
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="18" t="str">
         <f>overview!B127</f>
         <v>TS_126</v>
       </c>
@@ -6615,9 +6611,9 @@
       </c>
     </row>
     <row r="130" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="24" t="str">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="18" t="str">
         <f>overview!B128</f>
         <v>TS_127</v>
       </c>
@@ -6627,9 +6623,9 @@
       </c>
     </row>
     <row r="131" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="24" t="str">
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="18" t="str">
         <f>overview!B129</f>
         <v>TS_128</v>
       </c>
@@ -6639,9 +6635,9 @@
       </c>
     </row>
     <row r="132" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="24" t="str">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="18" t="str">
         <f>overview!B130</f>
         <v>TS_129</v>
       </c>
@@ -6651,9 +6647,9 @@
       </c>
     </row>
     <row r="133" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="24" t="str">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="18" t="str">
         <f>overview!B131</f>
         <v>TS_130</v>
       </c>
@@ -6663,9 +6659,9 @@
       </c>
     </row>
     <row r="134" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="24" t="str">
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="18" t="str">
         <f>overview!B132</f>
         <v>TS_131</v>
       </c>
@@ -6675,9 +6671,9 @@
       </c>
     </row>
     <row r="135" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="24" t="str">
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="18" t="str">
         <f>overview!B133</f>
         <v>TS_132</v>
       </c>
@@ -6687,9 +6683,9 @@
       </c>
     </row>
     <row r="136" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="24" t="str">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="18" t="str">
         <f>overview!B134</f>
         <v>TS_133</v>
       </c>
@@ -6699,9 +6695,9 @@
       </c>
     </row>
     <row r="137" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="24" t="str">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="18" t="str">
         <f>overview!B135</f>
         <v>TS_134</v>
       </c>
@@ -6711,9 +6707,9 @@
       </c>
     </row>
     <row r="138" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="24" t="str">
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="18" t="str">
         <f>overview!B136</f>
         <v>TS_135</v>
       </c>
@@ -6723,9 +6719,9 @@
       </c>
     </row>
     <row r="139" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="24" t="str">
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="18" t="str">
         <f>overview!B137</f>
         <v>TS_136</v>
       </c>
@@ -6735,12 +6731,12 @@
       </c>
     </row>
     <row r="140" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="26"/>
-      <c r="C140" s="26" t="str">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20" t="str">
         <f>FRD!A34</f>
         <v>3.11 Поле "Мобильный номер телефона"</v>
       </c>
-      <c r="D140" s="24" t="str">
+      <c r="D140" s="18" t="str">
         <f>overview!B138</f>
         <v>TS_137</v>
       </c>
@@ -6750,9 +6746,9 @@
       </c>
     </row>
     <row r="141" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="24" t="str">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="18" t="str">
         <f>overview!B139</f>
         <v>TS_138</v>
       </c>
@@ -6762,9 +6758,9 @@
       </c>
     </row>
     <row r="142" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="24" t="str">
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="18" t="str">
         <f>overview!B140</f>
         <v>TS_139</v>
       </c>
@@ -6774,9 +6770,9 @@
       </c>
     </row>
     <row r="143" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="24" t="str">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="18" t="str">
         <f>overview!B141</f>
         <v>TS_140</v>
       </c>
@@ -6786,9 +6782,9 @@
       </c>
     </row>
     <row r="144" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="24" t="str">
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="18" t="str">
         <f>overview!B142</f>
         <v>TS_141</v>
       </c>
@@ -6798,9 +6794,9 @@
       </c>
     </row>
     <row r="145" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="24" t="str">
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="18" t="str">
         <f>overview!B143</f>
         <v>TS_142</v>
       </c>
@@ -6810,9 +6806,9 @@
       </c>
     </row>
     <row r="146" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="24" t="str">
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="18" t="str">
         <f>overview!B144</f>
         <v>TS_143</v>
       </c>
@@ -6822,9 +6818,9 @@
       </c>
     </row>
     <row r="147" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="24" t="str">
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="18" t="str">
         <f>overview!B145</f>
         <v>TS_144</v>
       </c>
@@ -6834,9 +6830,9 @@
       </c>
     </row>
     <row r="148" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="24" t="str">
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="18" t="str">
         <f>overview!B146</f>
         <v>TS_145</v>
       </c>
@@ -6846,9 +6842,9 @@
       </c>
     </row>
     <row r="149" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="24" t="str">
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="18" t="str">
         <f>overview!B147</f>
         <v>TS_146</v>
       </c>
@@ -6858,9 +6854,9 @@
       </c>
     </row>
     <row r="150" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="24" t="str">
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="18" t="str">
         <f>overview!B148</f>
         <v>TS_147</v>
       </c>
@@ -6870,9 +6866,9 @@
       </c>
     </row>
     <row r="151" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="24" t="str">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="18" t="str">
         <f>overview!B149</f>
         <v>TS_148</v>
       </c>
@@ -6882,9 +6878,9 @@
       </c>
     </row>
     <row r="152" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="24" t="str">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="18" t="str">
         <f>overview!B150</f>
         <v>TS_149</v>
       </c>
@@ -6894,12 +6890,12 @@
       </c>
     </row>
     <row r="153" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="26"/>
-      <c r="C153" s="26" t="str">
+      <c r="B153" s="20"/>
+      <c r="C153" s="20" t="str">
         <f>FRD!A36</f>
         <v>3.12 Поле "Реферальная схема и промо-код"</v>
       </c>
-      <c r="D153" s="24" t="str">
+      <c r="D153" s="18" t="str">
         <f>overview!B151</f>
         <v>TS_150</v>
       </c>
@@ -6909,9 +6905,9 @@
       </c>
     </row>
     <row r="154" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="24" t="str">
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="18" t="str">
         <f>overview!B152</f>
         <v>TS_151</v>
       </c>
@@ -6921,9 +6917,9 @@
       </c>
     </row>
     <row r="155" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="24" t="str">
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="18" t="str">
         <f>overview!B153</f>
         <v>TS_152</v>
       </c>
@@ -6933,9 +6929,9 @@
       </c>
     </row>
     <row r="156" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="24" t="str">
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="18" t="str">
         <f>overview!B154</f>
         <v>TS_153</v>
       </c>
@@ -6945,9 +6941,9 @@
       </c>
     </row>
     <row r="157" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="24" t="str">
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="18" t="str">
         <f>overview!B155</f>
         <v>TS_154</v>
       </c>
@@ -6957,9 +6953,9 @@
       </c>
     </row>
     <row r="158" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="24" t="str">
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="18" t="str">
         <f>overview!B156</f>
         <v>TS_155</v>
       </c>
@@ -6969,9 +6965,9 @@
       </c>
     </row>
     <row r="159" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="24" t="str">
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="18" t="str">
         <f>overview!B157</f>
         <v>TS_156</v>
       </c>
@@ -6981,12 +6977,12 @@
       </c>
     </row>
     <row r="160" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="26"/>
-      <c r="C160" s="26" t="str">
+      <c r="B160" s="20"/>
+      <c r="C160" s="20" t="str">
         <f>FRD!A38</f>
         <v>3.13 Поле "Имя пользователя вашего Представителя"</v>
       </c>
-      <c r="D160" s="24" t="str">
+      <c r="D160" s="18" t="str">
         <f>overview!B158</f>
         <v>TS_157</v>
       </c>
@@ -6996,9 +6992,9 @@
       </c>
     </row>
     <row r="161" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="24" t="str">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="18" t="str">
         <f>overview!B159</f>
         <v>TS_158</v>
       </c>
@@ -7008,9 +7004,9 @@
       </c>
     </row>
     <row r="162" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="24" t="str">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="18" t="str">
         <f>overview!B160</f>
         <v>TS_159</v>
       </c>
@@ -7020,9 +7016,9 @@
       </c>
     </row>
     <row r="163" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="24" t="str">
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="18" t="str">
         <f>overview!B161</f>
         <v>TS_160</v>
       </c>
@@ -7032,9 +7028,9 @@
       </c>
     </row>
     <row r="164" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="24" t="str">
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="18" t="str">
         <f>overview!B162</f>
         <v>TS_161</v>
       </c>
@@ -7044,9 +7040,9 @@
       </c>
     </row>
     <row r="165" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="24" t="str">
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="18" t="str">
         <f>overview!B163</f>
         <v>TS_162</v>
       </c>
@@ -7056,9 +7052,9 @@
       </c>
     </row>
     <row r="166" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="24" t="str">
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="18" t="str">
         <f>overview!B164</f>
         <v>TS_163</v>
       </c>
@@ -7068,9 +7064,9 @@
       </c>
     </row>
     <row r="167" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="24" t="str">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="18" t="str">
         <f>overview!B165</f>
         <v>TS_164</v>
       </c>
@@ -7080,9 +7076,9 @@
       </c>
     </row>
     <row r="168" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="24" t="str">
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="18" t="str">
         <f>overview!B166</f>
         <v>TS_165</v>
       </c>
@@ -7092,9 +7088,9 @@
       </c>
     </row>
     <row r="169" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="24" t="str">
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="18" t="str">
         <f>overview!B167</f>
         <v>TS_166</v>
       </c>
@@ -7104,12 +7100,12 @@
       </c>
     </row>
     <row r="170" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="26"/>
-      <c r="C170" s="26" t="str">
+      <c r="B170" s="20"/>
+      <c r="C170" s="20" t="str">
         <f>FRD!A40</f>
         <v>3.14 Поле "Промо-код"</v>
       </c>
-      <c r="D170" s="24" t="str">
+      <c r="D170" s="18" t="str">
         <f>overview!B168</f>
         <v>TS_167</v>
       </c>
@@ -7119,9 +7115,9 @@
       </c>
     </row>
     <row r="171" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="24" t="str">
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="18" t="str">
         <f>overview!B169</f>
         <v>TS_168</v>
       </c>
@@ -7131,9 +7127,9 @@
       </c>
     </row>
     <row r="172" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="24" t="str">
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="18" t="str">
         <f>overview!B170</f>
         <v>TS_169</v>
       </c>
@@ -7143,9 +7139,9 @@
       </c>
     </row>
     <row r="173" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="24" t="str">
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="18" t="str">
         <f>overview!B171</f>
         <v>TS_170</v>
       </c>
@@ -7155,9 +7151,9 @@
       </c>
     </row>
     <row r="174" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="24" t="str">
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="18" t="str">
         <f>overview!B172</f>
         <v>TS_171</v>
       </c>
@@ -7167,9 +7163,9 @@
       </c>
     </row>
     <row r="175" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="24" t="str">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="18" t="str">
         <f>overview!B173</f>
         <v>TS_172</v>
       </c>
@@ -7179,9 +7175,9 @@
       </c>
     </row>
     <row r="176" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="24" t="str">
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="18" t="str">
         <f>overview!B174</f>
         <v>TS_173</v>
       </c>
@@ -7191,9 +7187,9 @@
       </c>
     </row>
     <row r="177" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="24" t="str">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="18" t="str">
         <f>overview!B175</f>
         <v>TS_174</v>
       </c>
@@ -7203,9 +7199,9 @@
       </c>
     </row>
     <row r="178" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="24" t="str">
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="18" t="str">
         <f>overview!B176</f>
         <v>TS_175</v>
       </c>
@@ -7215,9 +7211,9 @@
       </c>
     </row>
     <row r="179" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="24" t="str">
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="18" t="str">
         <f>overview!B177</f>
         <v>TS_176</v>
       </c>
@@ -7227,15 +7223,15 @@
       </c>
     </row>
     <row r="180" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B180" s="26" t="str">
+      <c r="B180" s="20" t="str">
         <f>BRD!A9</f>
         <v>4 Блок " Your login details"</v>
       </c>
-      <c r="C180" s="26" t="str">
+      <c r="C180" s="20" t="str">
         <f>FRD!A43</f>
         <v>4.1 Поле "Логин"</v>
       </c>
-      <c r="D180" s="24" t="str">
+      <c r="D180" s="18" t="str">
         <f>overview!B178</f>
         <v>TS_177</v>
       </c>
@@ -7245,9 +7241,9 @@
       </c>
     </row>
     <row r="181" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="24" t="str">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="18" t="str">
         <f>overview!B179</f>
         <v>TS_178</v>
       </c>
@@ -7257,9 +7253,9 @@
       </c>
     </row>
     <row r="182" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="24" t="str">
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="18" t="str">
         <f>overview!B180</f>
         <v>TS_179</v>
       </c>
@@ -7269,9 +7265,9 @@
       </c>
     </row>
     <row r="183" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="24" t="str">
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="18" t="str">
         <f>overview!B181</f>
         <v>TS_180</v>
       </c>
@@ -7281,9 +7277,9 @@
       </c>
     </row>
     <row r="184" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="24" t="str">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="18" t="str">
         <f>overview!B182</f>
         <v>TS_181</v>
       </c>
@@ -7293,9 +7289,9 @@
       </c>
     </row>
     <row r="185" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="24" t="str">
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="18" t="str">
         <f>overview!B183</f>
         <v>TS_182</v>
       </c>
@@ -7305,9 +7301,9 @@
       </c>
     </row>
     <row r="186" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="24" t="str">
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="18" t="str">
         <f>overview!B184</f>
         <v>TS_183</v>
       </c>
@@ -7317,9 +7313,9 @@
       </c>
     </row>
     <row r="187" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="24" t="str">
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="18" t="str">
         <f>overview!B185</f>
         <v>TS_184</v>
       </c>
@@ -7329,9 +7325,9 @@
       </c>
     </row>
     <row r="188" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="24" t="str">
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="18" t="str">
         <f>overview!B186</f>
         <v>TS_185</v>
       </c>
@@ -7341,9 +7337,9 @@
       </c>
     </row>
     <row r="189" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="24" t="str">
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="18" t="str">
         <f>overview!B187</f>
         <v>TS_186</v>
       </c>
@@ -7353,9 +7349,9 @@
       </c>
     </row>
     <row r="190" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="24" t="str">
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="18" t="str">
         <f>overview!B188</f>
         <v>TS_187</v>
       </c>
@@ -7365,9 +7361,9 @@
       </c>
     </row>
     <row r="191" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="24" t="str">
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="18" t="str">
         <f>overview!B189</f>
         <v>TS_188</v>
       </c>
@@ -7377,9 +7373,9 @@
       </c>
     </row>
     <row r="192" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="24" t="str">
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="18" t="str">
         <f>overview!B190</f>
         <v>TS_189</v>
       </c>
@@ -7389,9 +7385,9 @@
       </c>
     </row>
     <row r="193" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="24" t="str">
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="18" t="str">
         <f>overview!B191</f>
         <v>TS_190</v>
       </c>
@@ -7401,9 +7397,9 @@
       </c>
     </row>
     <row r="194" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="24" t="str">
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="18" t="str">
         <f>overview!B192</f>
         <v>TS_191</v>
       </c>
@@ -7413,9 +7409,9 @@
       </c>
     </row>
     <row r="195" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="24" t="str">
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="18" t="str">
         <f>overview!B193</f>
         <v>TS_192</v>
       </c>
@@ -7425,9 +7421,9 @@
       </c>
     </row>
     <row r="196" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="24" t="str">
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="18" t="str">
         <f>overview!B194</f>
         <v>TS_193</v>
       </c>
@@ -7437,12 +7433,12 @@
       </c>
     </row>
     <row r="197" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" s="26"/>
-      <c r="C197" s="26" t="str">
+      <c r="B197" s="20"/>
+      <c r="C197" s="20" t="str">
         <f>FRD!A45</f>
         <v>4.2 Поле "Пароль"</v>
       </c>
-      <c r="D197" s="24" t="str">
+      <c r="D197" s="18" t="str">
         <f>overview!B195</f>
         <v>TS_194</v>
       </c>
@@ -7452,9 +7448,9 @@
       </c>
     </row>
     <row r="198" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="24" t="str">
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="18" t="str">
         <f>overview!B196</f>
         <v>TS_195</v>
       </c>
@@ -7464,9 +7460,9 @@
       </c>
     </row>
     <row r="199" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="24" t="str">
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="18" t="str">
         <f>overview!B197</f>
         <v>TS_196</v>
       </c>
@@ -7476,9 +7472,9 @@
       </c>
     </row>
     <row r="200" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="24" t="str">
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="18" t="str">
         <f>overview!B198</f>
         <v>TS_197</v>
       </c>
@@ -7488,9 +7484,9 @@
       </c>
     </row>
     <row r="201" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="24" t="str">
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="18" t="str">
         <f>overview!B199</f>
         <v>TS_198</v>
       </c>
@@ -7500,9 +7496,9 @@
       </c>
     </row>
     <row r="202" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="24" t="str">
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="18" t="str">
         <f>overview!B200</f>
         <v>TS_199</v>
       </c>
@@ -7512,9 +7508,9 @@
       </c>
     </row>
     <row r="203" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="24" t="str">
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="18" t="str">
         <f>overview!B201</f>
         <v>TS_200</v>
       </c>
@@ -7524,9 +7520,9 @@
       </c>
     </row>
     <row r="204" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="24" t="str">
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="18" t="str">
         <f>overview!B202</f>
         <v>TS_201</v>
       </c>
@@ -7536,9 +7532,9 @@
       </c>
     </row>
     <row r="205" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="24" t="str">
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="18" t="str">
         <f>overview!B203</f>
         <v>TS_202</v>
       </c>
@@ -7548,9 +7544,9 @@
       </c>
     </row>
     <row r="206" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="24" t="str">
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="18" t="str">
         <f>overview!B204</f>
         <v>TS_203</v>
       </c>
@@ -7560,9 +7556,9 @@
       </c>
     </row>
     <row r="207" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="24" t="str">
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="18" t="str">
         <f>overview!B205</f>
         <v>TS_204</v>
       </c>
@@ -7572,9 +7568,9 @@
       </c>
     </row>
     <row r="208" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="24" t="str">
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="18" t="str">
         <f>overview!B206</f>
         <v>TS_205</v>
       </c>
@@ -7584,12 +7580,12 @@
       </c>
     </row>
     <row r="209" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="26"/>
-      <c r="C209" s="26" t="str">
+      <c r="B209" s="20"/>
+      <c r="C209" s="20" t="str">
         <f>FRD!A47</f>
         <v>4.3 Поле "Подтверждение вашего пароля"</v>
       </c>
-      <c r="D209" s="24" t="str">
+      <c r="D209" s="18" t="str">
         <f>overview!B207</f>
         <v>TS_206</v>
       </c>
@@ -7599,9 +7595,9 @@
       </c>
     </row>
     <row r="210" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="24" t="str">
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="18" t="str">
         <f>overview!B208</f>
         <v>TS_207</v>
       </c>
@@ -7611,9 +7607,9 @@
       </c>
     </row>
     <row r="211" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="24" t="str">
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="18" t="str">
         <f>overview!B209</f>
         <v>TS_208</v>
       </c>
@@ -7623,9 +7619,9 @@
       </c>
     </row>
     <row r="212" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="24" t="str">
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="18" t="str">
         <f>overview!B210</f>
         <v>TS_209</v>
       </c>
@@ -7635,9 +7631,9 @@
       </c>
     </row>
     <row r="213" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="24" t="str">
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="18" t="str">
         <f>overview!B211</f>
         <v>TS_210</v>
       </c>
@@ -7647,9 +7643,9 @@
       </c>
     </row>
     <row r="214" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="24" t="str">
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="18" t="str">
         <f>overview!B212</f>
         <v>TS_211</v>
       </c>
@@ -7659,9 +7655,9 @@
       </c>
     </row>
     <row r="215" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="24" t="str">
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="18" t="str">
         <f>overview!B213</f>
         <v>TS_212</v>
       </c>
@@ -7671,9 +7667,9 @@
       </c>
     </row>
     <row r="216" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="24" t="str">
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="18" t="str">
         <f>overview!B214</f>
         <v>TS_213</v>
       </c>
@@ -7683,9 +7679,9 @@
       </c>
     </row>
     <row r="217" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="24" t="str">
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="18" t="str">
         <f>overview!B215</f>
         <v>TS_214</v>
       </c>
@@ -7695,9 +7691,9 @@
       </c>
     </row>
     <row r="218" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="24" t="str">
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="18" t="str">
         <f>overview!B216</f>
         <v>TS_215</v>
       </c>
@@ -7707,9 +7703,9 @@
       </c>
     </row>
     <row r="219" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="24" t="str">
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="18" t="str">
         <f>overview!B217</f>
         <v>TS_216</v>
       </c>
@@ -7719,9 +7715,9 @@
       </c>
     </row>
     <row r="220" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="24" t="str">
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="18" t="str">
         <f>overview!B218</f>
         <v>TS_217</v>
       </c>
@@ -7731,12 +7727,12 @@
       </c>
     </row>
     <row r="221" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B221" s="26"/>
-      <c r="C221" s="26" t="str">
+      <c r="B221" s="20"/>
+      <c r="C221" s="20" t="str">
         <f>FRD!A49</f>
         <v>4.4 Поле "E-mail адрес"</v>
       </c>
-      <c r="D221" s="24" t="str">
+      <c r="D221" s="18" t="str">
         <f>overview!B219</f>
         <v>TS_218</v>
       </c>
@@ -7746,9 +7742,9 @@
       </c>
     </row>
     <row r="222" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="24" t="str">
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="18" t="str">
         <f>overview!B220</f>
         <v>TS_219</v>
       </c>
@@ -7758,9 +7754,9 @@
       </c>
     </row>
     <row r="223" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="24" t="str">
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="18" t="str">
         <f>overview!B221</f>
         <v>TS_220</v>
       </c>
@@ -7770,9 +7766,9 @@
       </c>
     </row>
     <row r="224" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="24" t="str">
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="18" t="str">
         <f>overview!B222</f>
         <v>TS_221</v>
       </c>
@@ -7782,9 +7778,9 @@
       </c>
     </row>
     <row r="225" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="24" t="str">
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="18" t="str">
         <f>overview!B223</f>
         <v>TS_222</v>
       </c>
@@ -7794,9 +7790,9 @@
       </c>
     </row>
     <row r="226" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="24" t="str">
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="18" t="str">
         <f>overview!B224</f>
         <v>TS_223</v>
       </c>
@@ -7806,9 +7802,9 @@
       </c>
     </row>
     <row r="227" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="24" t="str">
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="18" t="str">
         <f>overview!B225</f>
         <v>TS_224</v>
       </c>
@@ -7818,9 +7814,9 @@
       </c>
     </row>
     <row r="228" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="24" t="str">
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="18" t="str">
         <f>overview!B226</f>
         <v>TS_225</v>
       </c>
@@ -7830,9 +7826,9 @@
       </c>
     </row>
     <row r="229" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="24" t="str">
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="18" t="str">
         <f>overview!B227</f>
         <v>TS_226</v>
       </c>
@@ -7842,9 +7838,9 @@
       </c>
     </row>
     <row r="230" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="24" t="str">
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="18" t="str">
         <f>overview!B228</f>
         <v>TS_227</v>
       </c>
@@ -7854,9 +7850,9 @@
       </c>
     </row>
     <row r="231" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="24" t="str">
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="18" t="str">
         <f>overview!B229</f>
         <v>TS_228</v>
       </c>
@@ -7866,9 +7862,9 @@
       </c>
     </row>
     <row r="232" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="24" t="str">
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="18" t="str">
         <f>overview!B230</f>
         <v>TS_229</v>
       </c>
@@ -7878,9 +7874,9 @@
       </c>
     </row>
     <row r="233" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="24" t="str">
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="18" t="str">
         <f>overview!B231</f>
         <v>TS_230</v>
       </c>
@@ -7890,12 +7886,12 @@
       </c>
     </row>
     <row r="234" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="26"/>
-      <c r="C234" s="26" t="str">
+      <c r="B234" s="20"/>
+      <c r="C234" s="20" t="str">
         <f>FRD!A51</f>
         <v>4.5 Поле " Подтверждение E-mail адреса"</v>
       </c>
-      <c r="D234" s="24" t="str">
+      <c r="D234" s="18" t="str">
         <f>overview!B232</f>
         <v>TS_231</v>
       </c>
@@ -7905,9 +7901,9 @@
       </c>
     </row>
     <row r="235" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="24" t="str">
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="18" t="str">
         <f>overview!B233</f>
         <v>TS_232</v>
       </c>
@@ -7917,9 +7913,9 @@
       </c>
     </row>
     <row r="236" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="24" t="str">
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="18" t="str">
         <f>overview!B234</f>
         <v>TS_233</v>
       </c>
@@ -7929,9 +7925,9 @@
       </c>
     </row>
     <row r="237" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="24" t="str">
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="18" t="str">
         <f>overview!B235</f>
         <v>TS_234</v>
       </c>
@@ -7941,9 +7937,9 @@
       </c>
     </row>
     <row r="238" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="24" t="str">
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="18" t="str">
         <f>overview!B236</f>
         <v>TS_235</v>
       </c>
@@ -7953,9 +7949,9 @@
       </c>
     </row>
     <row r="239" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="24" t="str">
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="18" t="str">
         <f>overview!B237</f>
         <v>TS_236</v>
       </c>
@@ -7965,9 +7961,9 @@
       </c>
     </row>
     <row r="240" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="24" t="str">
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="18" t="str">
         <f>overview!B238</f>
         <v>TS_237</v>
       </c>
@@ -7977,9 +7973,9 @@
       </c>
     </row>
     <row r="241" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="24" t="str">
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="18" t="str">
         <f>overview!B239</f>
         <v>TS_238</v>
       </c>
@@ -7989,9 +7985,9 @@
       </c>
     </row>
     <row r="242" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="24" t="str">
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="18" t="str">
         <f>overview!B240</f>
         <v>TS_239</v>
       </c>
@@ -8001,9 +7997,9 @@
       </c>
     </row>
     <row r="243" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="24" t="str">
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="18" t="str">
         <f>overview!B241</f>
         <v>TS_240</v>
       </c>
@@ -8013,9 +8009,9 @@
       </c>
     </row>
     <row r="244" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="24" t="str">
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="18" t="str">
         <f>overview!B242</f>
         <v>TS_241</v>
       </c>
@@ -8025,9 +8021,9 @@
       </c>
     </row>
     <row r="245" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="24" t="str">
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="18" t="str">
         <f>overview!B243</f>
         <v>TS_242</v>
       </c>
@@ -8037,9 +8033,9 @@
       </c>
     </row>
     <row r="246" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="24" t="str">
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="18" t="str">
         <f>overview!B244</f>
         <v>TS_243</v>
       </c>
@@ -8049,12 +8045,12 @@
       </c>
     </row>
     <row r="247" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B247" s="26"/>
-      <c r="C247" s="26" t="str">
+      <c r="B247" s="20"/>
+      <c r="C247" s="20" t="str">
         <f>FRD!A53</f>
         <v>4.6 Поле " Секретный вопрос"</v>
       </c>
-      <c r="D247" s="24" t="str">
+      <c r="D247" s="18" t="str">
         <f>overview!B245</f>
         <v>TS_244</v>
       </c>
@@ -8064,9 +8060,9 @@
       </c>
     </row>
     <row r="248" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="24" t="str">
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="18" t="str">
         <f>overview!B246</f>
         <v>TS_245</v>
       </c>
@@ -8076,9 +8072,9 @@
       </c>
     </row>
     <row r="249" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="24" t="str">
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="18" t="str">
         <f>overview!B247</f>
         <v>TS_246</v>
       </c>
@@ -8088,9 +8084,9 @@
       </c>
     </row>
     <row r="250" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
-      <c r="D250" s="24" t="str">
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="18" t="str">
         <f>overview!B248</f>
         <v>TS_247</v>
       </c>
@@ -8100,9 +8096,9 @@
       </c>
     </row>
     <row r="251" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="24" t="str">
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="18" t="str">
         <f>overview!B249</f>
         <v>TS_248</v>
       </c>
@@ -8112,9 +8108,9 @@
       </c>
     </row>
     <row r="252" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="24" t="str">
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="18" t="str">
         <f>overview!B250</f>
         <v>TS_249</v>
       </c>
@@ -8124,9 +8120,9 @@
       </c>
     </row>
     <row r="253" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="24" t="str">
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="18" t="str">
         <f>overview!B251</f>
         <v>TS_250</v>
       </c>
@@ -8136,9 +8132,9 @@
       </c>
     </row>
     <row r="254" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="24" t="str">
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="18" t="str">
         <f>overview!B252</f>
         <v>TS_251</v>
       </c>
@@ -8148,9 +8144,9 @@
       </c>
     </row>
     <row r="255" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="24" t="str">
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="18" t="str">
         <f>overview!B253</f>
         <v>TS_252</v>
       </c>
@@ -8160,9 +8156,9 @@
       </c>
     </row>
     <row r="256" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="24" t="str">
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="18" t="str">
         <f>overview!B254</f>
         <v>TS_253</v>
       </c>
@@ -8172,9 +8168,9 @@
       </c>
     </row>
     <row r="257" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="24" t="str">
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="18" t="str">
         <f>overview!B255</f>
         <v>TS_254</v>
       </c>
@@ -8184,9 +8180,9 @@
       </c>
     </row>
     <row r="258" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="24" t="str">
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="18" t="str">
         <f>overview!B256</f>
         <v>TS_255</v>
       </c>
@@ -8196,9 +8192,9 @@
       </c>
     </row>
     <row r="259" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="24" t="str">
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="18" t="str">
         <f>overview!B257</f>
         <v>TS_256</v>
       </c>
@@ -8208,9 +8204,9 @@
       </c>
     </row>
     <row r="260" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="24" t="str">
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="18" t="str">
         <f>overview!B258</f>
         <v>TS_257</v>
       </c>
@@ -8220,12 +8216,12 @@
       </c>
     </row>
     <row r="261" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B261" s="26"/>
-      <c r="C261" s="26" t="str">
+      <c r="B261" s="20"/>
+      <c r="C261" s="20" t="str">
         <f>FRD!A55</f>
         <v>4.7 Поле "Ответ"</v>
       </c>
-      <c r="D261" s="24" t="str">
+      <c r="D261" s="18" t="str">
         <f>overview!B259</f>
         <v>TS_258</v>
       </c>
@@ -8235,9 +8231,9 @@
       </c>
     </row>
     <row r="262" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="24" t="str">
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="18" t="str">
         <f>overview!B260</f>
         <v>TS_259</v>
       </c>
@@ -8247,9 +8243,9 @@
       </c>
     </row>
     <row r="263" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="24" t="str">
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="18" t="str">
         <f>overview!B261</f>
         <v>TS_260</v>
       </c>
@@ -8259,9 +8255,9 @@
       </c>
     </row>
     <row r="264" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="24" t="str">
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="18" t="str">
         <f>overview!B262</f>
         <v>TS_261</v>
       </c>
@@ -8271,9 +8267,9 @@
       </c>
     </row>
     <row r="265" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="24" t="str">
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="18" t="str">
         <f>overview!B263</f>
         <v>TS_262</v>
       </c>
@@ -8283,9 +8279,9 @@
       </c>
     </row>
     <row r="266" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
-      <c r="D266" s="24" t="str">
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="18" t="str">
         <f>overview!B264</f>
         <v>TS_263</v>
       </c>
@@ -8295,9 +8291,9 @@
       </c>
     </row>
     <row r="267" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="24" t="str">
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="18" t="str">
         <f>overview!B265</f>
         <v>TS_264</v>
       </c>
@@ -8307,9 +8303,9 @@
       </c>
     </row>
     <row r="268" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="24" t="str">
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="18" t="str">
         <f>overview!B266</f>
         <v>TS_265</v>
       </c>
@@ -8319,9 +8315,9 @@
       </c>
     </row>
     <row r="269" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="24" t="str">
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="18" t="str">
         <f>overview!B267</f>
         <v>TS_266</v>
       </c>
@@ -8331,9 +8327,9 @@
       </c>
     </row>
     <row r="270" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="24" t="str">
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="18" t="str">
         <f>overview!B268</f>
         <v>TS_267</v>
       </c>
@@ -8343,9 +8339,9 @@
       </c>
     </row>
     <row r="271" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
-      <c r="D271" s="24" t="str">
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="18" t="str">
         <f>overview!B269</f>
         <v>TS_268</v>
       </c>
@@ -8355,9 +8351,9 @@
       </c>
     </row>
     <row r="272" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="24" t="str">
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="18" t="str">
         <f>overview!B270</f>
         <v>TS_269</v>
       </c>
@@ -8367,9 +8363,9 @@
       </c>
     </row>
     <row r="273" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="24" t="str">
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="18" t="str">
         <f>overview!B271</f>
         <v>TS_270</v>
       </c>
@@ -8379,15 +8375,15 @@
       </c>
     </row>
     <row r="274" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B274" s="26" t="str">
+      <c r="B274" s="20" t="str">
         <f>BRD!A11</f>
         <v>5 Блок "Additional information"</v>
       </c>
-      <c r="C274" s="26" t="str">
+      <c r="C274" s="20" t="str">
         <f>FRD!A58</f>
         <v>5.1 Поле согласие с правилами</v>
       </c>
-      <c r="D274" s="24" t="str">
+      <c r="D274" s="18" t="str">
         <f>overview!B272</f>
         <v>TS_271</v>
       </c>
@@ -8397,9 +8393,9 @@
       </c>
     </row>
     <row r="275" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="D275" s="24" t="str">
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="18" t="str">
         <f>overview!B273</f>
         <v>TS_272</v>
       </c>
@@ -8409,9 +8405,9 @@
       </c>
     </row>
     <row r="276" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="24" t="str">
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="18" t="str">
         <f>overview!B274</f>
         <v>TS_273</v>
       </c>
@@ -8421,9 +8417,9 @@
       </c>
     </row>
     <row r="277" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
-      <c r="D277" s="24" t="str">
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="18" t="str">
         <f>overview!B275</f>
         <v>TS_274</v>
       </c>
@@ -8433,9 +8429,9 @@
       </c>
     </row>
     <row r="278" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
-      <c r="D278" s="24" t="str">
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="18" t="str">
         <f>overview!B276</f>
         <v>TS_275</v>
       </c>
@@ -8445,9 +8441,9 @@
       </c>
     </row>
     <row r="279" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
-      <c r="D279" s="24" t="str">
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="18" t="str">
         <f>overview!B277</f>
         <v>TS_276</v>
       </c>
@@ -8457,9 +8453,9 @@
       </c>
     </row>
     <row r="280" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
-      <c r="D280" s="24" t="str">
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="18" t="str">
         <f>overview!B278</f>
         <v>TS_277</v>
       </c>
@@ -8469,9 +8465,9 @@
       </c>
     </row>
     <row r="281" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
-      <c r="D281" s="24" t="str">
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="18" t="str">
         <f>overview!B279</f>
         <v>TS_278</v>
       </c>
@@ -8481,12 +8477,12 @@
       </c>
     </row>
     <row r="282" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B282" s="26"/>
-      <c r="C282" s="26" t="str">
+      <c r="B282" s="20"/>
+      <c r="C282" s="20" t="str">
         <f>FRD!A60</f>
         <v>5.2 Поле соглашения с бонусами</v>
       </c>
-      <c r="D282" s="24" t="str">
+      <c r="D282" s="18" t="str">
         <f>overview!B280</f>
         <v>TS_279</v>
       </c>
@@ -8496,9 +8492,9 @@
       </c>
     </row>
     <row r="283" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
-      <c r="D283" s="24" t="str">
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="18" t="str">
         <f>overview!B281</f>
         <v>TS_280</v>
       </c>
@@ -8508,9 +8504,9 @@
       </c>
     </row>
     <row r="284" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
-      <c r="D284" s="24" t="str">
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="18" t="str">
         <f>overview!B282</f>
         <v>TS_281</v>
       </c>
@@ -8520,9 +8516,9 @@
       </c>
     </row>
     <row r="285" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
-      <c r="D285" s="24" t="str">
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="18" t="str">
         <f>overview!B283</f>
         <v>TS_282</v>
       </c>
@@ -8532,12 +8528,12 @@
       </c>
     </row>
     <row r="286" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B286" s="26"/>
-      <c r="C286" s="26" t="str">
+      <c r="B286" s="20"/>
+      <c r="C286" s="20" t="str">
         <f>FRD!A62</f>
         <v>5.3 Кнопка "CREATE MY ACCOUNT"</v>
       </c>
-      <c r="D286" s="24" t="str">
+      <c r="D286" s="18" t="str">
         <f>overview!B284</f>
         <v>TS_283</v>
       </c>
